--- a/tests/11_Data_Add_Activity_News.xlsx
+++ b/tests/11_Data_Add_Activity_News.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB83BB-DB33-4255-80ED-1B1B8D1DDADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB8374-E9CF-4BA0-B1D3-5418575B169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,25 @@
     <sheet name="ตารางที่ TC011-EC" sheetId="1" r:id="rId1"/>
     <sheet name="ตารางที่ TC011-TC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="98">
   <si>
     <t>TCID</t>
   </si>
@@ -57,9 +70,6 @@
     <t>1,8,10</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>ข่า</t>
   </si>
   <si>
@@ -126,9 +136,6 @@
     <t>1,12,10</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>นายสุทธิพงษ์ จุลเจริญ ปลัดกระทรวงมหาดไทย เปิดเผยความคืบหน้าการแก้ไขปัญหาหนี้นอกระบบตามนโยบายรัฐบาล หลังประชาชนลงทะเบียนแก้หนี้นอกระบบ รวมทั้งสิ้น 153,400 ราย กระทรวงมหาดไทยได้แจ้งทุกจังหวัดและอำเภอ เดินหน้าแก้ไขปัญหาหนี้นอกระบบ ด้วยการเชิญเจ้าหนี้และลูกหนี้มาเข้าสู่กระบวนการเจรจาไกล่เกลี่ยหนี้1</t>
   </si>
   <si>
@@ -283,6 +290,39 @@
   </si>
   <si>
     <t>C:\Users\Vivo\Desktop\เล่มสมบูรณ์\เล่ม Miniproject6234_V2.1_finish.pdf</t>
+  </si>
+  <si>
+    <t>Allow</t>
+  </si>
+  <si>
+    <t>Revise</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result P/F </t>
+  </si>
+  <si>
+    <t>คิดเป็น %</t>
+  </si>
+  <si>
+    <t>Pass :</t>
+  </si>
+  <si>
+    <t>Fail :</t>
+  </si>
+  <si>
+    <t>Sum :</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Revise Manual Testing</t>
   </si>
 </sst>
 </file>
@@ -332,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -509,11 +555,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,11 +695,78 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -914,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -932,7 +1060,7 @@
     <col min="8" max="8" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -957,8 +1085,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -981,15 +1115,21 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1001,21 +1141,27 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1027,19 +1173,25 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1051,19 +1203,25 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1072,22 +1230,28 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -1096,17 +1260,23 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1118,17 +1288,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1151,10 +1327,16 @@
         <v>11</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1162,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1171,16 +1353,22 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1188,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -1197,16 +1385,22 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1214,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -1223,16 +1417,22 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1240,25 +1440,31 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1266,25 +1472,31 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1296,19 +1508,25 @@
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1331,10 +1549,16 @@
         <v>11</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1345,22 +1569,28 @@
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1371,20 +1601,26 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1395,20 +1631,26 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1419,22 +1661,28 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1445,20 +1693,26 @@
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1469,20 +1723,26 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G22" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1494,18 +1754,130 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25"/>
+      <c r="I23" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="47">
+        <f>COUNTIF(H2:H23,"Pass")</f>
+        <v>9</v>
+      </c>
+      <c r="J27" s="47">
+        <f>I27*100/I29</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="47">
+        <f>COUNTIF(H2:H23,"Fail")</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="47">
+        <f>I28*100/I29</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="47">
+        <f>SUM(I27:I28)</f>
+        <v>12</v>
+      </c>
+      <c r="J29" s="47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="47">
+        <f>COUNTIF(J2:J23,"Pass")</f>
+        <v>22</v>
+      </c>
+      <c r="J32" s="47">
+        <f>I32*100/I34</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="47">
+        <f>COUNTIF(J2:J23,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="47">
+        <f>I33*100/I34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="47">
+        <f>SUM(I32:I33)</f>
+        <v>22</v>
+      </c>
+      <c r="J34" s="47">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H31:I31"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H2:H23">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1533,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1553,27 +1925,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="39"/>
     </row>
@@ -1581,10 +1953,10 @@
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="39"/>
     </row>
@@ -1592,10 +1964,10 @@
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="39"/>
     </row>
@@ -1603,10 +1975,10 @@
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F6" s="39"/>
     </row>
@@ -1614,10 +1986,10 @@
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>8</v>
@@ -1628,10 +2000,10 @@
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1642,10 +2014,10 @@
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1656,10 +2028,10 @@
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="39"/>
     </row>
@@ -1667,10 +2039,10 @@
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F11" s="39"/>
     </row>
@@ -1678,10 +2050,10 @@
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="40"/>
@@ -1691,27 +2063,27 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="39"/>
     </row>
@@ -1719,10 +2091,10 @@
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="39"/>
     </row>
@@ -1730,10 +2102,10 @@
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="39"/>
     </row>
@@ -1741,10 +2113,10 @@
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="39"/>
     </row>
@@ -1752,13 +2124,13 @@
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="39"/>
     </row>
@@ -1766,10 +2138,10 @@
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -1780,10 +2152,10 @@
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1794,10 +2166,10 @@
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="39"/>
     </row>
@@ -1805,10 +2177,10 @@
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="39"/>
     </row>
@@ -1816,10 +2188,10 @@
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="40"/>
@@ -1829,27 +2201,27 @@
         <v>3</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="39"/>
     </row>
@@ -1857,10 +2229,10 @@
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F26" s="39"/>
     </row>
@@ -1868,10 +2240,10 @@
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F27" s="39"/>
     </row>
@@ -1879,10 +2251,10 @@
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="39"/>
     </row>
@@ -1890,13 +2262,13 @@
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="39"/>
     </row>
@@ -1904,10 +2276,10 @@
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
@@ -1918,10 +2290,10 @@
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -1932,10 +2304,10 @@
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F32" s="39"/>
     </row>
@@ -1943,10 +2315,10 @@
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F33" s="39"/>
     </row>
@@ -1954,10 +2326,10 @@
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="40"/>
@@ -1967,27 +2339,27 @@
         <v>4</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" s="39"/>
     </row>
@@ -1995,10 +2367,10 @@
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" s="39"/>
     </row>
@@ -2006,10 +2378,10 @@
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" s="39"/>
     </row>
@@ -2017,10 +2389,10 @@
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" s="39"/>
     </row>
@@ -2028,13 +2400,13 @@
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="39"/>
     </row>
@@ -2042,10 +2414,10 @@
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
@@ -2056,10 +2428,10 @@
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -2070,10 +2442,10 @@
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" s="39"/>
     </row>
@@ -2081,10 +2453,10 @@
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" s="39"/>
     </row>
@@ -2092,10 +2464,10 @@
       <c r="A45" s="27"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="40"/>
@@ -2105,27 +2477,27 @@
         <v>5</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" s="39"/>
     </row>
@@ -2133,10 +2505,10 @@
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F48" s="39"/>
     </row>
@@ -2144,10 +2516,10 @@
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F49" s="39"/>
     </row>
@@ -2155,10 +2527,10 @@
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F50" s="39"/>
     </row>
@@ -2166,13 +2538,13 @@
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51" s="39"/>
     </row>
@@ -2180,10 +2552,10 @@
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
@@ -2194,10 +2566,10 @@
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
@@ -2208,10 +2580,10 @@
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F54" s="39"/>
     </row>
@@ -2219,10 +2591,10 @@
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F55" s="39"/>
     </row>
@@ -2230,10 +2602,10 @@
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="31"/>
       <c r="F56" s="40"/>
@@ -2243,27 +2615,27 @@
         <v>6</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="39"/>
     </row>
@@ -2271,10 +2643,10 @@
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="39"/>
     </row>
@@ -2282,10 +2654,10 @@
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="39"/>
     </row>
@@ -2293,10 +2665,10 @@
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="39"/>
     </row>
@@ -2304,13 +2676,13 @@
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" s="39"/>
     </row>
@@ -2318,10 +2690,10 @@
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
@@ -2332,10 +2704,10 @@
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>10</v>
@@ -2346,10 +2718,10 @@
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="39"/>
     </row>
@@ -2357,10 +2729,10 @@
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="39"/>
     </row>
@@ -2368,10 +2740,10 @@
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E67" s="31"/>
       <c r="F67" s="40"/>
@@ -2381,27 +2753,27 @@
         <v>7</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F69" s="39"/>
     </row>
@@ -2409,10 +2781,10 @@
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F70" s="39"/>
     </row>
@@ -2420,10 +2792,10 @@
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F71" s="39"/>
     </row>
@@ -2431,10 +2803,10 @@
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F72" s="39"/>
     </row>
@@ -2442,10 +2814,10 @@
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="39"/>
@@ -2454,10 +2826,10 @@
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
@@ -2468,10 +2840,10 @@
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>10</v>
@@ -2482,10 +2854,10 @@
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F76" s="39"/>
     </row>
@@ -2493,10 +2865,10 @@
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F77" s="39"/>
     </row>
@@ -2504,10 +2876,10 @@
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E78" s="31"/>
       <c r="F78" s="40"/>
@@ -2517,27 +2889,27 @@
         <v>8</v>
       </c>
       <c r="B79" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F80" s="39"/>
     </row>
@@ -2545,10 +2917,10 @@
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F81" s="39"/>
     </row>
@@ -2556,10 +2928,10 @@
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F82" s="39"/>
     </row>
@@ -2567,10 +2939,10 @@
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F83" s="39"/>
     </row>
@@ -2578,10 +2950,10 @@
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E84" s="35" t="s">
         <v>8</v>
@@ -2592,10 +2964,10 @@
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>9</v>
@@ -2606,10 +2978,10 @@
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
@@ -2620,10 +2992,10 @@
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F87" s="39"/>
     </row>
@@ -2631,10 +3003,10 @@
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F88" s="39"/>
     </row>
@@ -2642,10 +3014,10 @@
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="40"/>
@@ -2655,27 +3027,27 @@
         <v>9</v>
       </c>
       <c r="B90" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E90" s="22"/>
       <c r="F90" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F91" s="39"/>
     </row>
@@ -2683,10 +3055,10 @@
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F92" s="39"/>
     </row>
@@ -2694,10 +3066,10 @@
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F93" s="39"/>
     </row>
@@ -2705,10 +3077,10 @@
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F94" s="39"/>
     </row>
@@ -2716,10 +3088,10 @@
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E95" s="35" t="s">
         <v>8</v>
@@ -2730,13 +3102,13 @@
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" s="39"/>
     </row>
@@ -2744,10 +3116,10 @@
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>10</v>
@@ -2758,10 +3130,10 @@
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F98" s="39"/>
     </row>
@@ -2769,10 +3141,10 @@
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F99" s="39"/>
     </row>
@@ -2780,10 +3152,10 @@
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="40"/>
@@ -2793,27 +3165,27 @@
         <v>10</v>
       </c>
       <c r="B101" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E101" s="22"/>
       <c r="F101" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F102" s="39"/>
     </row>
@@ -2821,10 +3193,10 @@
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F103" s="39"/>
     </row>
@@ -2832,10 +3204,10 @@
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="39"/>
     </row>
@@ -2843,10 +3215,10 @@
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F105" s="39"/>
     </row>
@@ -2854,10 +3226,10 @@
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E106" s="35" t="s">
         <v>8</v>
@@ -2868,13 +3240,13 @@
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F107" s="39"/>
     </row>
@@ -2882,10 +3254,10 @@
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>10</v>
@@ -2896,10 +3268,10 @@
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F109" s="39"/>
     </row>
@@ -2907,10 +3279,10 @@
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F110" s="39"/>
     </row>
@@ -2918,10 +3290,10 @@
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E111" s="31"/>
       <c r="F111" s="40"/>
@@ -2931,27 +3303,27 @@
         <v>11</v>
       </c>
       <c r="B112" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E112" s="22"/>
       <c r="F112" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F113" s="39"/>
     </row>
@@ -2959,10 +3331,10 @@
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F114" s="39"/>
     </row>
@@ -2970,10 +3342,10 @@
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F115" s="39"/>
     </row>
@@ -2981,10 +3353,10 @@
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F116" s="39"/>
     </row>
@@ -2992,10 +3364,10 @@
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E117" s="35" t="s">
         <v>8</v>
@@ -3006,13 +3378,13 @@
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F118" s="39"/>
     </row>
@@ -3020,10 +3392,10 @@
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>10</v>
@@ -3034,10 +3406,10 @@
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F120" s="39"/>
     </row>
@@ -3045,10 +3417,10 @@
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F121" s="39"/>
     </row>
@@ -3056,10 +3428,10 @@
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
       <c r="C122" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="40"/>
@@ -3069,27 +3441,27 @@
         <v>12</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F124" s="39"/>
     </row>
@@ -3097,10 +3469,10 @@
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F125" s="39"/>
     </row>
@@ -3108,10 +3480,10 @@
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F126" s="39"/>
     </row>
@@ -3119,10 +3491,10 @@
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F127" s="39"/>
     </row>
@@ -3130,10 +3502,10 @@
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E128" s="35" t="s">
         <v>8</v>
@@ -3144,13 +3516,13 @@
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" s="39"/>
     </row>
@@ -3158,10 +3530,10 @@
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>10</v>
@@ -3172,10 +3544,10 @@
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F131" s="39"/>
     </row>
@@ -3183,10 +3555,10 @@
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F132" s="39"/>
     </row>
@@ -3194,10 +3566,10 @@
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E133" s="31"/>
       <c r="F133" s="40"/>
@@ -3207,27 +3579,27 @@
         <v>13</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E134" s="22"/>
       <c r="F134" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F135" s="39"/>
     </row>
@@ -3235,10 +3607,10 @@
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F136" s="39"/>
     </row>
@@ -3246,10 +3618,10 @@
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F137" s="39"/>
     </row>
@@ -3257,10 +3629,10 @@
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F138" s="39"/>
     </row>
@@ -3268,10 +3640,10 @@
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E139" s="35" t="s">
         <v>8</v>
@@ -3282,13 +3654,13 @@
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F140" s="39"/>
     </row>
@@ -3296,10 +3668,10 @@
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>10</v>
@@ -3310,10 +3682,10 @@
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F142" s="39"/>
     </row>
@@ -3321,10 +3693,10 @@
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F143" s="39"/>
     </row>
@@ -3332,10 +3704,10 @@
       <c r="A144" s="27"/>
       <c r="B144" s="28"/>
       <c r="C144" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="40"/>
@@ -3345,27 +3717,27 @@
         <v>14</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E145" s="22"/>
       <c r="F145" s="41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F146" s="39"/>
     </row>
@@ -3373,10 +3745,10 @@
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F147" s="39"/>
     </row>
@@ -3384,10 +3756,10 @@
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F148" s="39"/>
     </row>
@@ -3395,10 +3767,10 @@
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F149" s="39"/>
     </row>
@@ -3406,10 +3778,10 @@
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E150" s="35" t="s">
         <v>8</v>
@@ -3420,10 +3792,10 @@
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E151" s="34"/>
       <c r="F151" s="39"/>
@@ -3432,10 +3804,10 @@
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>10</v>
@@ -3446,10 +3818,10 @@
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F153" s="39"/>
     </row>
@@ -3457,10 +3829,10 @@
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F154" s="39"/>
     </row>
@@ -3468,10 +3840,10 @@
       <c r="A155" s="27"/>
       <c r="B155" s="28"/>
       <c r="C155" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E155" s="31"/>
       <c r="F155" s="40"/>
@@ -3481,27 +3853,27 @@
         <v>15</v>
       </c>
       <c r="B156" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E156" s="22"/>
       <c r="F156" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F157" s="39"/>
     </row>
@@ -3509,10 +3881,10 @@
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F158" s="39"/>
     </row>
@@ -3520,10 +3892,10 @@
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F159" s="39"/>
     </row>
@@ -3531,10 +3903,10 @@
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F160" s="39"/>
     </row>
@@ -3542,10 +3914,10 @@
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E161" s="35" t="s">
         <v>8</v>
@@ -3556,10 +3928,10 @@
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E162" s="35" t="s">
         <v>9</v>
@@ -3570,10 +3942,10 @@
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>10</v>
@@ -3584,10 +3956,10 @@
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F164" s="39"/>
     </row>
@@ -3595,10 +3967,10 @@
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F165" s="39"/>
     </row>
@@ -3606,10 +3978,10 @@
       <c r="A166" s="27"/>
       <c r="B166" s="28"/>
       <c r="C166" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E166" s="31"/>
       <c r="F166" s="40"/>
@@ -3619,27 +3991,27 @@
         <v>16</v>
       </c>
       <c r="B167" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E167" s="22"/>
       <c r="F167" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F168" s="39"/>
     </row>
@@ -3647,10 +4019,10 @@
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F169" s="39"/>
     </row>
@@ -3658,10 +4030,10 @@
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F170" s="39"/>
     </row>
@@ -3669,10 +4041,10 @@
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F171" s="39"/>
     </row>
@@ -3680,10 +4052,10 @@
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E172" s="35" t="s">
         <v>8</v>
@@ -3694,10 +4066,10 @@
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E173" s="35" t="s">
         <v>9</v>
@@ -3708,10 +4080,10 @@
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>10</v>
@@ -3722,10 +4094,10 @@
       <c r="A175" s="23"/>
       <c r="B175" s="24"/>
       <c r="C175" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F175" s="39"/>
     </row>
@@ -3733,10 +4105,10 @@
       <c r="A176" s="23"/>
       <c r="B176" s="24"/>
       <c r="C176" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F176" s="39"/>
     </row>
@@ -3744,10 +4116,10 @@
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E177" s="31"/>
       <c r="F177" s="40"/>
@@ -3757,27 +4129,27 @@
         <v>17</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E178" s="22"/>
       <c r="F178" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="24"/>
       <c r="C179" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F179" s="39"/>
     </row>
@@ -3785,10 +4157,10 @@
       <c r="A180" s="23"/>
       <c r="B180" s="24"/>
       <c r="C180" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F180" s="39"/>
     </row>
@@ -3796,10 +4168,10 @@
       <c r="A181" s="23"/>
       <c r="B181" s="24"/>
       <c r="C181" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F181" s="39"/>
     </row>
@@ -3807,10 +4179,10 @@
       <c r="A182" s="23"/>
       <c r="B182" s="24"/>
       <c r="C182" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F182" s="39"/>
     </row>
@@ -3818,10 +4190,10 @@
       <c r="A183" s="23"/>
       <c r="B183" s="24"/>
       <c r="C183" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E183" s="35" t="s">
         <v>8</v>
@@ -3832,10 +4204,10 @@
       <c r="A184" s="23"/>
       <c r="B184" s="24"/>
       <c r="C184" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E184" s="35" t="s">
         <v>9</v>
@@ -3846,13 +4218,13 @@
       <c r="A185" s="23"/>
       <c r="B185" s="24"/>
       <c r="C185" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E185" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F185" s="39"/>
     </row>
@@ -3860,10 +4232,10 @@
       <c r="A186" s="23"/>
       <c r="B186" s="24"/>
       <c r="C186" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F186" s="39"/>
     </row>
@@ -3871,10 +4243,10 @@
       <c r="A187" s="23"/>
       <c r="B187" s="24"/>
       <c r="C187" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F187" s="39"/>
     </row>
@@ -3882,10 +4254,10 @@
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E188" s="31"/>
       <c r="F188" s="40"/>
@@ -3895,27 +4267,27 @@
         <v>18</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E189" s="22"/>
       <c r="F189" s="41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="24"/>
       <c r="C190" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F190" s="39"/>
     </row>
@@ -3923,10 +4295,10 @@
       <c r="A191" s="23"/>
       <c r="B191" s="24"/>
       <c r="C191" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F191" s="39"/>
     </row>
@@ -3934,10 +4306,10 @@
       <c r="A192" s="23"/>
       <c r="B192" s="24"/>
       <c r="C192" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F192" s="39"/>
     </row>
@@ -3945,10 +4317,10 @@
       <c r="A193" s="23"/>
       <c r="B193" s="24"/>
       <c r="C193" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F193" s="39"/>
     </row>
@@ -3956,10 +4328,10 @@
       <c r="A194" s="23"/>
       <c r="B194" s="24"/>
       <c r="C194" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E194" s="35" t="s">
         <v>8</v>
@@ -3970,10 +4342,10 @@
       <c r="A195" s="23"/>
       <c r="B195" s="24"/>
       <c r="C195" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E195" s="35" t="s">
         <v>9</v>
@@ -3984,13 +4356,13 @@
       <c r="A196" s="23"/>
       <c r="B196" s="24"/>
       <c r="C196" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E196" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F196" s="39"/>
     </row>
@@ -3998,10 +4370,10 @@
       <c r="A197" s="23"/>
       <c r="B197" s="24"/>
       <c r="C197" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F197" s="39"/>
     </row>
@@ -4009,10 +4381,10 @@
       <c r="A198" s="23"/>
       <c r="B198" s="24"/>
       <c r="C198" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F198" s="39"/>
     </row>
@@ -4020,10 +4392,10 @@
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E199" s="31"/>
       <c r="F199" s="40"/>
@@ -4033,27 +4405,27 @@
         <v>19</v>
       </c>
       <c r="B200" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D200" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E200" s="22"/>
       <c r="F200" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="24"/>
       <c r="C201" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F201" s="39"/>
     </row>
@@ -4061,10 +4433,10 @@
       <c r="A202" s="23"/>
       <c r="B202" s="24"/>
       <c r="C202" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F202" s="39"/>
     </row>
@@ -4072,10 +4444,10 @@
       <c r="A203" s="23"/>
       <c r="B203" s="24"/>
       <c r="C203" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F203" s="39"/>
     </row>
@@ -4083,10 +4455,10 @@
       <c r="A204" s="23"/>
       <c r="B204" s="24"/>
       <c r="C204" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F204" s="39"/>
     </row>
@@ -4094,10 +4466,10 @@
       <c r="A205" s="23"/>
       <c r="B205" s="24"/>
       <c r="C205" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E205" s="35" t="s">
         <v>8</v>
@@ -4108,10 +4480,10 @@
       <c r="A206" s="23"/>
       <c r="B206" s="24"/>
       <c r="C206" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E206" s="35" t="s">
         <v>9</v>
@@ -4122,10 +4494,10 @@
       <c r="A207" s="23"/>
       <c r="B207" s="24"/>
       <c r="C207" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>10</v>
@@ -4136,10 +4508,10 @@
       <c r="A208" s="23"/>
       <c r="B208" s="24"/>
       <c r="C208" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F208" s="39"/>
     </row>
@@ -4147,10 +4519,10 @@
       <c r="A209" s="23"/>
       <c r="B209" s="24"/>
       <c r="C209" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F209" s="39"/>
     </row>
@@ -4158,10 +4530,10 @@
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
       <c r="C210" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D210" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E210" s="31"/>
       <c r="F210" s="40"/>
@@ -4171,27 +4543,27 @@
         <v>20</v>
       </c>
       <c r="B211" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D211" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E211" s="22"/>
       <c r="F211" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="24"/>
       <c r="C212" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F212" s="39"/>
     </row>
@@ -4199,10 +4571,10 @@
       <c r="A213" s="23"/>
       <c r="B213" s="24"/>
       <c r="C213" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F213" s="39"/>
     </row>
@@ -4210,10 +4582,10 @@
       <c r="A214" s="23"/>
       <c r="B214" s="24"/>
       <c r="C214" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F214" s="39"/>
     </row>
@@ -4221,10 +4593,10 @@
       <c r="A215" s="23"/>
       <c r="B215" s="24"/>
       <c r="C215" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F215" s="39"/>
     </row>
@@ -4232,10 +4604,10 @@
       <c r="A216" s="23"/>
       <c r="B216" s="24"/>
       <c r="C216" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E216" s="35" t="s">
         <v>8</v>
@@ -4246,10 +4618,10 @@
       <c r="A217" s="23"/>
       <c r="B217" s="24"/>
       <c r="C217" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E217" s="35" t="s">
         <v>9</v>
@@ -4260,10 +4632,10 @@
       <c r="A218" s="23"/>
       <c r="B218" s="24"/>
       <c r="C218" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E218" s="26" t="s">
         <v>10</v>
@@ -4274,10 +4646,10 @@
       <c r="A219" s="23"/>
       <c r="B219" s="24"/>
       <c r="C219" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F219" s="39"/>
     </row>
@@ -4285,10 +4657,10 @@
       <c r="A220" s="23"/>
       <c r="B220" s="24"/>
       <c r="C220" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F220" s="39"/>
     </row>
@@ -4296,10 +4668,10 @@
       <c r="A221" s="27"/>
       <c r="B221" s="28"/>
       <c r="C221" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D221" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E221" s="31"/>
       <c r="F221" s="40"/>
@@ -4309,27 +4681,27 @@
         <v>21</v>
       </c>
       <c r="B222" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="E222" s="22"/>
       <c r="F222" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="24"/>
       <c r="C223" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F223" s="39"/>
     </row>
@@ -4337,10 +4709,10 @@
       <c r="A224" s="23"/>
       <c r="B224" s="24"/>
       <c r="C224" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F224" s="39"/>
     </row>
@@ -4348,10 +4720,10 @@
       <c r="A225" s="23"/>
       <c r="B225" s="24"/>
       <c r="C225" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F225" s="39"/>
     </row>
@@ -4359,10 +4731,10 @@
       <c r="A226" s="23"/>
       <c r="B226" s="24"/>
       <c r="C226" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F226" s="39"/>
     </row>
@@ -4370,10 +4742,10 @@
       <c r="A227" s="23"/>
       <c r="B227" s="24"/>
       <c r="C227" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E227" s="35" t="s">
         <v>8</v>
@@ -4384,10 +4756,10 @@
       <c r="A228" s="23"/>
       <c r="B228" s="24"/>
       <c r="C228" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E228" s="35" t="s">
         <v>9</v>
@@ -4398,10 +4770,10 @@
       <c r="A229" s="23"/>
       <c r="B229" s="24"/>
       <c r="C229" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E229" s="26" t="s">
         <v>10</v>
@@ -4412,10 +4784,10 @@
       <c r="A230" s="23"/>
       <c r="B230" s="24"/>
       <c r="C230" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F230" s="39"/>
     </row>
@@ -4423,10 +4795,10 @@
       <c r="A231" s="23"/>
       <c r="B231" s="24"/>
       <c r="C231" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F231" s="39"/>
     </row>
@@ -4434,10 +4806,10 @@
       <c r="A232" s="27"/>
       <c r="B232" s="28"/>
       <c r="C232" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D232" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E232" s="31"/>
       <c r="F232" s="40"/>
@@ -4447,27 +4819,27 @@
         <v>22</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E233" s="22"/>
       <c r="F233" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="24"/>
       <c r="C234" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F234" s="39"/>
     </row>
@@ -4475,10 +4847,10 @@
       <c r="A235" s="23"/>
       <c r="B235" s="24"/>
       <c r="C235" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F235" s="39"/>
     </row>
@@ -4486,10 +4858,10 @@
       <c r="A236" s="23"/>
       <c r="B236" s="24"/>
       <c r="C236" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F236" s="39"/>
     </row>
@@ -4497,10 +4869,10 @@
       <c r="A237" s="23"/>
       <c r="B237" s="24"/>
       <c r="C237" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F237" s="39"/>
     </row>
@@ -4508,10 +4880,10 @@
       <c r="A238" s="23"/>
       <c r="B238" s="24"/>
       <c r="C238" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E238" s="35" t="s">
         <v>8</v>
@@ -4522,10 +4894,10 @@
       <c r="A239" s="23"/>
       <c r="B239" s="24"/>
       <c r="C239" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E239" s="35" t="s">
         <v>9</v>
@@ -4536,10 +4908,10 @@
       <c r="A240" s="23"/>
       <c r="B240" s="24"/>
       <c r="C240" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E240" s="37"/>
       <c r="F240" s="39"/>
@@ -4548,10 +4920,10 @@
       <c r="A241" s="23"/>
       <c r="B241" s="24"/>
       <c r="C241" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F241" s="39"/>
     </row>
@@ -4559,10 +4931,10 @@
       <c r="A242" s="23"/>
       <c r="B242" s="24"/>
       <c r="C242" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F242" s="39"/>
     </row>
@@ -4570,16 +4942,31 @@
       <c r="A243" s="27"/>
       <c r="B243" s="28"/>
       <c r="C243" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E243" s="31"/>
       <c r="F243" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="F24:F34"/>
+    <mergeCell ref="F35:F45"/>
+    <mergeCell ref="F46:F56"/>
+    <mergeCell ref="F57:F67"/>
+    <mergeCell ref="F68:F78"/>
+    <mergeCell ref="F79:F89"/>
+    <mergeCell ref="F90:F100"/>
+    <mergeCell ref="F101:F111"/>
+    <mergeCell ref="F112:F122"/>
+    <mergeCell ref="F123:F133"/>
+    <mergeCell ref="F134:F144"/>
+    <mergeCell ref="F145:F155"/>
+    <mergeCell ref="F156:F166"/>
     <mergeCell ref="F222:F232"/>
     <mergeCell ref="F233:F243"/>
     <mergeCell ref="F167:F177"/>
@@ -4587,21 +4974,6 @@
     <mergeCell ref="F189:F199"/>
     <mergeCell ref="F200:F210"/>
     <mergeCell ref="F211:F221"/>
-    <mergeCell ref="F112:F122"/>
-    <mergeCell ref="F123:F133"/>
-    <mergeCell ref="F134:F144"/>
-    <mergeCell ref="F145:F155"/>
-    <mergeCell ref="F156:F166"/>
-    <mergeCell ref="F57:F67"/>
-    <mergeCell ref="F68:F78"/>
-    <mergeCell ref="F79:F89"/>
-    <mergeCell ref="F90:F100"/>
-    <mergeCell ref="F101:F111"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="F13:F23"/>
-    <mergeCell ref="F24:F34"/>
-    <mergeCell ref="F35:F45"/>
-    <mergeCell ref="F46:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/11_Data_Add_Activity_News.xlsx
+++ b/tests/11_Data_Add_Activity_News.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB8374-E9CF-4BA0-B1D3-5418575B169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AAA005-30AD-4C60-8938-09E10B6098C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="92">
   <si>
     <t>TCID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>3,8,10</t>
   </si>
   <si>
-    <t>ชื่อหัวข้อข่าวสารและกิจกรรมต้องมีความยาวระหว่าง 2 ถึง 255 ตัวอักษร</t>
-  </si>
-  <si>
     <t>4,8,10</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>กรุณากรอกหัวข้อข่าวสาร</t>
   </si>
   <si>
-    <t>กรุณากรอกชื่อหัวข้อข่าวสารและกิจกรรม</t>
-  </si>
-  <si>
     <t>ข่าวดี</t>
   </si>
   <si>
@@ -163,9 +157,6 @@
     <t>1,8,12</t>
   </si>
   <si>
-    <t>กรุณาเลือกไฟล์รูปภาพ</t>
-  </si>
-  <si>
     <t>C:\Users\Vivo\Downloads\Photo\Data_TC05\PDF_compressed.pdf</t>
   </si>
   <si>
@@ -298,12 +289,6 @@
     <t>Revise</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Result P/F </t>
   </si>
   <si>
@@ -317,9 +302,6 @@
   </si>
   <si>
     <t>Sum :</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Revise Manual Testing</t>
@@ -683,6 +665,22 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,27 +693,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
@@ -723,36 +705,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1044,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1085,11 +1037,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>88</v>
+      <c r="I1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1111,18 +1063,10 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1143,18 +1087,10 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1175,16 +1111,10 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="153" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1203,25 +1133,19 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -1230,28 +1154,22 @@
         <v>10</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -1260,21 +1178,15 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1288,21 +1200,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1323,18 +1229,10 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1344,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1353,20 +1251,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1376,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -1385,20 +1275,12 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1408,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -1417,20 +1299,12 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1440,29 +1314,21 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1472,29 +1338,21 @@
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1508,23 +1366,15 @@
         <v>10</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1545,18 +1395,10 @@
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1569,26 +1411,18 @@
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1601,24 +1435,18 @@
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1631,24 +1459,18 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1661,26 +1483,18 @@
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1693,24 +1507,18 @@
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1723,24 +1531,18 @@
         <v>9</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1754,114 +1556,108 @@
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="I23" s="39"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="42">
+        <f>COUNTIF(H2:H23,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="42" t="e">
+        <f>I27*100/I29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="42">
+        <f>COUNTIF(H2:H23,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="42" t="e">
+        <f>I28*100/I29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="42">
+        <f>SUM(I27:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="47">
-        <f>COUNTIF(H2:H23,"Pass")</f>
-        <v>9</v>
-      </c>
-      <c r="J27" s="47">
-        <f>I27*100/I29</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="47">
-        <f>COUNTIF(H2:H23,"Fail")</f>
-        <v>3</v>
-      </c>
-      <c r="J28" s="47">
-        <f>I28*100/I29</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H29" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="47">
-        <f>SUM(I27:I28)</f>
-        <v>12</v>
-      </c>
-      <c r="J29" s="47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46" t="s">
-        <v>92</v>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="47">
+      <c r="H32" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="42">
         <f>COUNTIF(J2:J23,"Pass")</f>
-        <v>22</v>
-      </c>
-      <c r="J32" s="47">
+        <v>0</v>
+      </c>
+      <c r="J32" s="42" t="e">
         <f>I32*100/I34</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="8:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="47">
+      <c r="H33" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" s="42">
         <f>COUNTIF(J2:J23,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="42" t="e">
         <f>I33*100/I34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="42">
+        <f>SUM(I32:I33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="8:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="47">
-        <f>SUM(I32:I33)</f>
-        <v>22</v>
-      </c>
-      <c r="J34" s="47">
+      <c r="J34" s="42">
         <v>100</v>
       </c>
     </row>
@@ -1871,11 +1667,11 @@
     <mergeCell ref="H31:I31"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:H23">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Pass"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,16 +1701,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>4</v>
@@ -1925,3048 +1721,3033 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="40"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>3</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>4</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="39"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="24"/>
       <c r="C41" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="39"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="39"/>
+      <c r="F42" s="45"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F44" s="45"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="40"/>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>5</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E46" s="22"/>
-      <c r="F46" s="41" t="s">
-        <v>20</v>
+      <c r="F46" s="47" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F47" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F48" s="45"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="39"/>
+        <v>18</v>
+      </c>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="39"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="39"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="24"/>
       <c r="C55" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E56" s="31"/>
-      <c r="F56" s="40"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>6</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E57" s="22"/>
-      <c r="F57" s="41" t="s">
-        <v>20</v>
+      <c r="F57" s="47" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="39"/>
+        <v>21</v>
+      </c>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="39"/>
+      <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="39"/>
+      <c r="F64" s="45"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F65" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F65" s="45"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F66" s="45"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E67" s="31"/>
-      <c r="F67" s="40"/>
+      <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>7</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E68" s="22"/>
-      <c r="F68" s="41" t="s">
-        <v>24</v>
+      <c r="F68" s="47" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F69" s="45"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F70" s="45"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F71" s="45"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F72" s="45"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E73" s="34"/>
-      <c r="F73" s="39"/>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="39"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="39"/>
+      <c r="F75" s="45"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F76" s="45"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E78" s="31"/>
-      <c r="F78" s="40"/>
+      <c r="F78" s="46"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>8</v>
       </c>
       <c r="B79" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F80" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F80" s="45"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F82" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F82" s="45"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F83" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F83" s="45"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E84" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="39"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="39"/>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="39"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F88" s="45"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E89" s="31"/>
-      <c r="F89" s="40"/>
+      <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>9</v>
       </c>
       <c r="B90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F91" s="45"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F92" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F93" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F94" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E95" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="39"/>
+      <c r="F95" s="45"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F96" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="F96" s="45"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="39"/>
+      <c r="F97" s="45"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F98" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F98" s="45"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F99" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E100" s="31"/>
-      <c r="F100" s="40"/>
+      <c r="F100" s="46"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <v>10</v>
       </c>
       <c r="B101" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F102" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F102" s="45"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F103" s="45"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F104" s="45"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F105" s="45"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E106" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="39"/>
+      <c r="F106" s="45"/>
     </row>
     <row r="107" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F107" s="39"/>
+        <v>26</v>
+      </c>
+      <c r="F107" s="45"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="39"/>
+      <c r="F108" s="45"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F109" s="45"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F110" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F110" s="45"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E111" s="31"/>
-      <c r="F111" s="40"/>
+      <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
         <v>11</v>
       </c>
       <c r="B112" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F113" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F113" s="45"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F114" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F115" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F115" s="45"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F116" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E117" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F117" s="39"/>
+      <c r="F117" s="45"/>
     </row>
     <row r="118" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="39"/>
+        <v>28</v>
+      </c>
+      <c r="F118" s="45"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="39"/>
+      <c r="F119" s="45"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F120" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F120" s="45"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
       <c r="C122" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E122" s="31"/>
-      <c r="F122" s="40"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>12</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E123" s="22"/>
-      <c r="F123" s="41" t="s">
-        <v>33</v>
+      <c r="F123" s="47" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F124" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F124" s="45"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F125" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F125" s="45"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F126" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F126" s="45"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F127" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F127" s="45"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E128" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F128" s="39"/>
+      <c r="F128" s="45"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F129" s="39"/>
+        <v>30</v>
+      </c>
+      <c r="F129" s="45"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="39"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F131" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F131" s="45"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F132" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F132" s="45"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E133" s="31"/>
-      <c r="F133" s="40"/>
+      <c r="F133" s="46"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <v>13</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E134" s="22"/>
-      <c r="F134" s="41" t="s">
-        <v>33</v>
+      <c r="F134" s="47" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F135" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F135" s="45"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F136" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F136" s="45"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F137" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F137" s="45"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F138" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F138" s="45"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E139" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="39"/>
+      <c r="F139" s="45"/>
     </row>
     <row r="140" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F140" s="39"/>
+        <v>33</v>
+      </c>
+      <c r="F140" s="45"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="39"/>
+      <c r="F141" s="45"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F142" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F142" s="45"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F143" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F143" s="45"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="27"/>
       <c r="B144" s="28"/>
       <c r="C144" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E144" s="31"/>
-      <c r="F144" s="40"/>
+      <c r="F144" s="46"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <v>14</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E145" s="22"/>
-      <c r="F145" s="41" t="s">
-        <v>37</v>
+      <c r="F145" s="47" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F146" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F146" s="45"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F147" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F147" s="45"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F148" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F148" s="45"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F149" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F149" s="45"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E150" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F150" s="39"/>
+      <c r="F150" s="45"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E151" s="34"/>
-      <c r="F151" s="39"/>
+      <c r="F151" s="45"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F152" s="39"/>
+      <c r="F152" s="45"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F153" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F153" s="45"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F154" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F154" s="45"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="27"/>
       <c r="B155" s="28"/>
       <c r="C155" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E155" s="31"/>
-      <c r="F155" s="40"/>
+      <c r="F155" s="46"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="18">
         <v>15</v>
       </c>
       <c r="B156" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C156" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E156" s="22"/>
+      <c r="F156" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E156" s="22"/>
-      <c r="F156" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F157" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F157" s="45"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F158" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F158" s="45"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F159" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F159" s="45"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F160" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F160" s="45"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E161" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="39"/>
+      <c r="F161" s="45"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E162" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F162" s="39"/>
+      <c r="F162" s="45"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F163" s="39"/>
+      <c r="F163" s="45"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F164" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F164" s="45"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F165" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F165" s="45"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="27"/>
       <c r="B166" s="28"/>
       <c r="C166" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E166" s="31"/>
-      <c r="F166" s="40"/>
+      <c r="F166" s="46"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="18">
         <v>16</v>
       </c>
       <c r="B167" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E167" s="22"/>
+      <c r="F167" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E167" s="22"/>
-      <c r="F167" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F168" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F168" s="45"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F169" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F169" s="45"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F170" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F170" s="45"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F171" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F171" s="45"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E172" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="39"/>
+      <c r="F172" s="45"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E173" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F173" s="39"/>
+      <c r="F173" s="45"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E174" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F174" s="39"/>
+      <c r="F174" s="45"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="24"/>
       <c r="C175" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F175" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F175" s="45"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="24"/>
       <c r="C176" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F176" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F176" s="45"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E177" s="31"/>
-      <c r="F177" s="40"/>
+      <c r="F177" s="46"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="18">
         <v>17</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E178" s="22"/>
-      <c r="F178" s="41" t="s">
-        <v>42</v>
+      <c r="F178" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="24"/>
       <c r="C179" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F179" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F179" s="45"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="24"/>
       <c r="C180" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F180" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F180" s="45"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="24"/>
       <c r="C181" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F181" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F181" s="45"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="24"/>
       <c r="C182" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F182" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F182" s="45"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="24"/>
       <c r="C183" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E183" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="39"/>
+      <c r="F183" s="45"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="24"/>
       <c r="C184" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E184" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F184" s="39"/>
+      <c r="F184" s="45"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="24"/>
       <c r="C185" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E185" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="F185" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="F185" s="45"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="24"/>
       <c r="C186" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F186" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F186" s="45"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="24"/>
       <c r="C187" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F187" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F187" s="45"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="27"/>
       <c r="B188" s="28"/>
       <c r="C188" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E188" s="31"/>
-      <c r="F188" s="40"/>
+      <c r="F188" s="46"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="18">
         <v>18</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E189" s="22"/>
-      <c r="F189" s="41" t="s">
-        <v>42</v>
+      <c r="F189" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="24"/>
       <c r="C190" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F190" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F190" s="45"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="24"/>
       <c r="C191" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F191" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F191" s="45"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="24"/>
       <c r="C192" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F192" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F192" s="45"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="24"/>
       <c r="C193" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F193" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F193" s="45"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="24"/>
       <c r="C194" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E194" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F194" s="39"/>
+      <c r="F194" s="45"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="24"/>
       <c r="C195" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E195" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F195" s="39"/>
+      <c r="F195" s="45"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="24"/>
       <c r="C196" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E196" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F196" s="39"/>
+        <v>83</v>
+      </c>
+      <c r="F196" s="45"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="24"/>
       <c r="C197" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F197" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F197" s="45"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="24"/>
       <c r="C198" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F198" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F198" s="45"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D199" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E199" s="31"/>
-      <c r="F199" s="40"/>
+      <c r="F199" s="46"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="18">
         <v>19</v>
       </c>
       <c r="B200" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D200" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="22"/>
+      <c r="F200" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C200" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D200" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E200" s="22"/>
-      <c r="F200" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="24"/>
       <c r="C201" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F201" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F201" s="45"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="24"/>
       <c r="C202" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F202" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F202" s="45"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="24"/>
       <c r="C203" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F203" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F203" s="45"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="24"/>
       <c r="C204" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F204" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F204" s="45"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="24"/>
       <c r="C205" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E205" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F205" s="39"/>
+      <c r="F205" s="45"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="24"/>
       <c r="C206" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E206" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F206" s="39"/>
+      <c r="F206" s="45"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="24"/>
       <c r="C207" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E207" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F207" s="39"/>
+      <c r="F207" s="45"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="24"/>
       <c r="C208" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F208" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F208" s="45"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="24"/>
       <c r="C209" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F209" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F209" s="45"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="27"/>
       <c r="B210" s="28"/>
       <c r="C210" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D210" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E210" s="31"/>
-      <c r="F210" s="40"/>
+      <c r="F210" s="46"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="18">
         <v>20</v>
       </c>
       <c r="B211" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="22"/>
+      <c r="F211" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D211" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E211" s="22"/>
-      <c r="F211" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="24"/>
       <c r="C212" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F212" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F212" s="45"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="24"/>
       <c r="C213" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F213" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F213" s="45"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="24"/>
       <c r="C214" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F214" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F214" s="45"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="24"/>
       <c r="C215" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F215" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F215" s="45"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="24"/>
       <c r="C216" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E216" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F216" s="39"/>
+      <c r="F216" s="45"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="24"/>
       <c r="C217" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E217" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F217" s="39"/>
+      <c r="F217" s="45"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="24"/>
       <c r="C218" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E218" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F218" s="39"/>
+      <c r="F218" s="45"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="24"/>
       <c r="C219" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F219" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F219" s="45"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="24"/>
       <c r="C220" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F220" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F220" s="45"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="27"/>
       <c r="B221" s="28"/>
       <c r="C221" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D221" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E221" s="31"/>
-      <c r="F221" s="40"/>
+      <c r="F221" s="46"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="18">
         <v>21</v>
       </c>
       <c r="B222" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D222" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E222" s="22"/>
+      <c r="F222" s="44" t="s">
         <v>60</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D222" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E222" s="22"/>
-      <c r="F222" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="24"/>
       <c r="C223" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F223" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F223" s="45"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="24"/>
       <c r="C224" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F224" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F224" s="45"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="24"/>
       <c r="C225" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F225" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F225" s="45"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="24"/>
       <c r="C226" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F226" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F226" s="45"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="24"/>
       <c r="C227" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E227" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F227" s="39"/>
+      <c r="F227" s="45"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="24"/>
       <c r="C228" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E228" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F228" s="39"/>
+      <c r="F228" s="45"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="24"/>
       <c r="C229" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E229" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F229" s="39"/>
+      <c r="F229" s="45"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="24"/>
       <c r="C230" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F230" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F230" s="45"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="24"/>
       <c r="C231" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F231" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F231" s="45"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="27"/>
       <c r="B232" s="28"/>
       <c r="C232" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D232" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E232" s="31"/>
-      <c r="F232" s="40"/>
+      <c r="F232" s="46"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="18">
         <v>22</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E233" s="22"/>
-      <c r="F233" s="41" t="s">
-        <v>54</v>
+      <c r="F233" s="47" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="24"/>
       <c r="C234" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F234" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="F234" s="45"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="24"/>
       <c r="C235" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F235" s="39"/>
+        <v>64</v>
+      </c>
+      <c r="F235" s="45"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="24"/>
       <c r="C236" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F236" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="F236" s="45"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="24"/>
       <c r="C237" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F237" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="F237" s="45"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="24"/>
       <c r="C238" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E238" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F238" s="39"/>
+      <c r="F238" s="45"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="24"/>
       <c r="C239" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E239" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F239" s="39"/>
+      <c r="F239" s="45"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="24"/>
       <c r="C240" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E240" s="37"/>
-      <c r="F240" s="39"/>
+      <c r="F240" s="45"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="24"/>
       <c r="C241" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F241" s="39"/>
+        <v>76</v>
+      </c>
+      <c r="F241" s="45"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="24"/>
       <c r="C242" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F242" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="F242" s="45"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="27"/>
       <c r="B243" s="28"/>
       <c r="C243" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D243" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E243" s="31"/>
-      <c r="F243" s="40"/>
+      <c r="F243" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="F13:F23"/>
-    <mergeCell ref="F24:F34"/>
-    <mergeCell ref="F35:F45"/>
-    <mergeCell ref="F46:F56"/>
-    <mergeCell ref="F57:F67"/>
-    <mergeCell ref="F68:F78"/>
-    <mergeCell ref="F79:F89"/>
-    <mergeCell ref="F90:F100"/>
-    <mergeCell ref="F101:F111"/>
-    <mergeCell ref="F112:F122"/>
-    <mergeCell ref="F123:F133"/>
-    <mergeCell ref="F134:F144"/>
-    <mergeCell ref="F145:F155"/>
-    <mergeCell ref="F156:F166"/>
     <mergeCell ref="F222:F232"/>
     <mergeCell ref="F233:F243"/>
     <mergeCell ref="F167:F177"/>
@@ -4974,6 +4755,21 @@
     <mergeCell ref="F189:F199"/>
     <mergeCell ref="F200:F210"/>
     <mergeCell ref="F211:F221"/>
+    <mergeCell ref="F112:F122"/>
+    <mergeCell ref="F123:F133"/>
+    <mergeCell ref="F134:F144"/>
+    <mergeCell ref="F145:F155"/>
+    <mergeCell ref="F156:F166"/>
+    <mergeCell ref="F57:F67"/>
+    <mergeCell ref="F68:F78"/>
+    <mergeCell ref="F79:F89"/>
+    <mergeCell ref="F90:F100"/>
+    <mergeCell ref="F101:F111"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="F24:F34"/>
+    <mergeCell ref="F35:F45"/>
+    <mergeCell ref="F46:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
